--- a/fixtures/excel/unit/valid-update-existing.xlsx
+++ b/fixtures/excel/unit/valid-update-existing.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>_id</t>
   </si>
@@ -39,10 +39,10 @@
     <t>Specifications</t>
   </si>
   <si>
-    <t>existing-id-1</t>
-  </si>
-  <si>
-    <t>ACR123456</t>
+    <t>77ee7dc1-e66a-4b21-8ad7-8a029e9835d1</t>
+  </si>
+  <si>
+    <t>ACR-TEST-001</t>
   </si>
   <si>
     <t>MAZA</t>
@@ -54,46 +54,67 @@
     <t>C/ABS</t>
   </si>
   <si>
+    <t>5 BIRLOS</t>
+  </si>
+  <si>
+    <t>5x10</t>
+  </si>
+  <si>
+    <t>🔄 UPDATED: Changed bolt pattern from 4x8 to 5x10</t>
+  </si>
+  <si>
+    <t>bb8ec1f4-1828-4f50-be93-4fd67788fa56</t>
+  </si>
+  <si>
+    <t>ACR-TEST-002</t>
+  </si>
+  <si>
     <t>4 BIRLOS</t>
   </si>
   <si>
     <t>4x8</t>
   </si>
   <si>
-    <t>Updated specifications</t>
-  </si>
-  <si>
-    <t>existing-id-2</t>
-  </si>
-  <si>
-    <t>ACR234567</t>
+    <t>🔄 UPDATED: Changed from TRASERA P/ABS to DELANTERA C/ABS</t>
+  </si>
+  <si>
+    <t>4acb850e-dd29-49ad-ab67-8435dd20c722</t>
+  </si>
+  <si>
+    <t>ACR-TEST-003</t>
   </si>
   <si>
     <t>ROTOR</t>
   </si>
   <si>
+    <t>🔄 UPDATED: Added drive type and changed bolt pattern</t>
+  </si>
+  <si>
+    <t>86c52a13-f85c-48b4-9416-086e34ed431f</t>
+  </si>
+  <si>
+    <t>ACR-TEST-004</t>
+  </si>
+  <si>
     <t>TRASERA</t>
   </si>
   <si>
-    <t>P/ABS</t>
-  </si>
-  <si>
-    <t>5 BIRLOS</t>
-  </si>
-  <si>
-    <t>5x10</t>
-  </si>
-  <si>
-    <t>existing-id-3</t>
-  </si>
-  <si>
-    <t>ACR345678</t>
+    <t/>
+  </si>
+  <si>
+    <t>Test part 4</t>
+  </si>
+  <si>
+    <t>b7345d5e-7d2f-40d4-9d98-f6b94c3afe43</t>
+  </si>
+  <si>
+    <t>ACR-TEST-005</t>
   </si>
   <si>
     <t>BALATA</t>
   </si>
   <si>
-    <t/>
+    <t>Test part 5</t>
   </si>
   <si>
     <t>_part_id</t>
@@ -503,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="36" hidden="1" customWidth="1"/>
@@ -573,48 +594,100 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -639,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -678,16 +751,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
